--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20_adj.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_first20_adj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\Article_SoftRobotIntervention\Analyses\main study - LLM\create tables, graphics G3\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\Article_SoftRobotIntervention_2\Analyses\main study - LLM\create tables, graphics G3\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835C320-9D9A-4F4E-B654-1F349BB68456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C932702-072C-46CA-9489-A72BB2CF0626}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Abbrevation</t>
   </si>
@@ -38,66 +38,6 @@
   </si>
   <si>
     <t>rigid</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>HRIN</t>
@@ -283,12 +223,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -298,13 +253,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,499 +578,438 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2">
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="2">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="2">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="2">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="2">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="2">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="2">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="2">
-        <v>9</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="2">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="2">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="2">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
     </row>
